--- a/테이블/테이블 원본/XML 파일 변경 사안.xlsx
+++ b/테이블/테이블 원본/XML 파일 변경 사안.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\hosung\게임기획\진심모드\테이블\XML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Last-Night\테이블\테이블 원본\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDF1743-BE99-4643-B8E3-93EB7019AD7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753946CF-6320-401F-A404-5F1EAEE1AD51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C262B350-6B90-43B3-8371-EB400ED47281}"/>
+    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{C262B350-6B90-43B3-8371-EB400ED47281}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -699,7 +699,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -712,9 +712,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -738,132 +735,132 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,7 +868,6 @@
   </cellStyles>
   <dxfs count="33">
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -884,7 +880,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFFF0000"/>
@@ -897,6 +892,98 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color rgb="FFFF0000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFFF0000"/>
+        </left>
+        <right/>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFFF0000"/>
@@ -911,6 +998,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -923,6 +1011,7 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFFF0000"/>
@@ -949,6 +1038,18 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFFF0000"/>
@@ -975,45 +1076,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFFF0000"/>
@@ -1026,7 +1088,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color rgb="FFFF0000"/>
@@ -1034,70 +1095,6 @@
         <right style="medium">
           <color rgb="FFFF0000"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color rgb="FFFF0000"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFFF0000"/>
-        </left>
-        <right/>
         <top/>
         <bottom/>
         <vertical/>
@@ -1225,100 +1222,100 @@
     <tableColumn id="2" xr3:uid="{A6ADBAB9-22DD-47D0-9F00-736B5742E745}" uniqueName="Type" name="Type" dataDxfId="31">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Setting/@Type" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AD4282C5-E52A-4737-B9D3-E62EBCDE85DD}" uniqueName="Character" name="Character" dataDxfId="2">
+    <tableColumn id="3" xr3:uid="{AD4282C5-E52A-4737-B9D3-E62EBCDE85DD}" uniqueName="Character" name="Character" dataDxfId="30">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Setting/@Character" xmlDataType="integer"/>
     </tableColumn>
     <tableColumn id="4" xr3:uid="{926D8A65-991A-45B0-BC04-D3F0954AE4C6}" uniqueName="Background" name="Background">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Setting/@Background" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{D2966A12-A633-4A2B-A3D2-ABF4BAC7E983}" uniqueName="BGM" name="BGM" dataDxfId="1">
+    <tableColumn id="5" xr3:uid="{D2966A12-A633-4A2B-A3D2-ABF4BAC7E983}" uniqueName="BGM" name="BGM" dataDxfId="29">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Setting/@BGM" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{17A51781-AD42-431D-B440-BA6C7E751302}" uniqueName="SFX" name="SFX" dataDxfId="0">
+    <tableColumn id="6" xr3:uid="{17A51781-AD42-431D-B440-BA6C7E751302}" uniqueName="SFX" name="SFX" dataDxfId="28">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Setting/@SFX" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{DB7CBF5B-C4E6-4A62-AB0B-66F5D798A3DF}" uniqueName="Left" name="Left" dataDxfId="30">
+    <tableColumn id="7" xr3:uid="{DB7CBF5B-C4E6-4A62-AB0B-66F5D798A3DF}" uniqueName="Left" name="Left" dataDxfId="27">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Location/@Left" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{8B8DAB93-EF92-4642-A4E4-83033082ADB8}" uniqueName="LeftExpression" name="LeftExpression" dataDxfId="29">
+    <tableColumn id="8" xr3:uid="{8B8DAB93-EF92-4642-A4E4-83033082ADB8}" uniqueName="LeftExpression" name="LeftExpression" dataDxfId="26">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Location/@LeftExpression" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{48E2A05C-B804-46B0-A94B-C1DD13955638}" uniqueName="Middle" name="Middle" dataDxfId="28">
+    <tableColumn id="9" xr3:uid="{48E2A05C-B804-46B0-A94B-C1DD13955638}" uniqueName="Middle" name="Middle" dataDxfId="25">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Location/@Middle" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{2B87EF61-445E-4B41-91F2-2FDEC94143FD}" uniqueName="MiddleExpression" name="MiddleExpression" dataDxfId="27">
+    <tableColumn id="10" xr3:uid="{2B87EF61-445E-4B41-91F2-2FDEC94143FD}" uniqueName="MiddleExpression" name="MiddleExpression" dataDxfId="24">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Location/@MiddleExpression" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{473B9EE5-562F-4CF4-805C-7F59DB3C98D5}" uniqueName="Right" name="Right" dataDxfId="26">
+    <tableColumn id="11" xr3:uid="{473B9EE5-562F-4CF4-805C-7F59DB3C98D5}" uniqueName="Right" name="Right" dataDxfId="23">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Location/@Right" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{A67B0067-B6AA-48F8-ACAE-6260E4DFBCD7}" uniqueName="RightExpression" name="RightExpression" dataDxfId="25">
+    <tableColumn id="12" xr3:uid="{A67B0067-B6AA-48F8-ACAE-6260E4DFBCD7}" uniqueName="RightExpression" name="RightExpression" dataDxfId="22">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Location/@RightExpression" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{90E1F469-8A42-4CC5-B1D0-4204852EE9ED}" uniqueName="FadeEffect" name="FadeEffect" dataDxfId="24">
+    <tableColumn id="13" xr3:uid="{90E1F469-8A42-4CC5-B1D0-4204852EE9ED}" uniqueName="FadeEffect" name="FadeEffect" dataDxfId="21">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Effect/@FadeEffect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{722D4CA7-A994-4D04-8A67-AB7AC1BFA7E5}" uniqueName="CameraEffect" name="CameraEffect" dataDxfId="23">
+    <tableColumn id="14" xr3:uid="{722D4CA7-A994-4D04-8A67-AB7AC1BFA7E5}" uniqueName="CameraEffect" name="CameraEffect" dataDxfId="20">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Effect/@CameraEffect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{6E7C51A5-FAC2-4FBB-A22B-CAAEE1FEC6B9}" uniqueName="UIEffect" name="UIEffect" dataDxfId="22">
+    <tableColumn id="15" xr3:uid="{6E7C51A5-FAC2-4FBB-A22B-CAAEE1FEC6B9}" uniqueName="UIEffect" name="UIEffect" dataDxfId="19">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/Effect/@UIEffect" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{77C7493D-7786-48C5-B56D-5A0B7D43B6B8}" uniqueName="LeftEvent" name="LeftEvent" dataDxfId="21">
+    <tableColumn id="16" xr3:uid="{77C7493D-7786-48C5-B56D-5A0B7D43B6B8}" uniqueName="LeftEvent" name="LeftEvent" dataDxfId="18">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@LeftEvent" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="17" xr3:uid="{34098885-D4A5-4D01-B334-9E68056F4B90}" uniqueName="LeftMove" name="LeftMove" dataDxfId="20">
+    <tableColumn id="17" xr3:uid="{34098885-D4A5-4D01-B334-9E68056F4B90}" uniqueName="LeftMove" name="LeftMove" dataDxfId="17">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@LeftMove" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{269C4676-2BEE-475B-B5C3-2FE548C73FC9}" uniqueName="LeftTime" name="LeftTime" dataDxfId="19">
+    <tableColumn id="18" xr3:uid="{269C4676-2BEE-475B-B5C3-2FE548C73FC9}" uniqueName="LeftTime" name="LeftTime" dataDxfId="16">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@LeftTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{C215494D-D349-41BA-9C61-6E8DB8EB8284}" uniqueName="LeftFade" name="LeftFade" dataDxfId="18">
+    <tableColumn id="19" xr3:uid="{C215494D-D349-41BA-9C61-6E8DB8EB8284}" uniqueName="LeftFade" name="LeftFade" dataDxfId="15">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@LeftFade" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="20" xr3:uid="{84391652-B963-4B37-8EFD-A457114F690D}" uniqueName="LeftReset" name="LeftReset" dataDxfId="17">
+    <tableColumn id="20" xr3:uid="{84391652-B963-4B37-8EFD-A457114F690D}" uniqueName="LeftReset" name="LeftReset" dataDxfId="14">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@LeftReset" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="21" xr3:uid="{24ACF80A-37B9-477A-9D9A-CED6A11D50BA}" uniqueName="MiddleEvent" name="MiddleEvent" dataDxfId="16">
+    <tableColumn id="21" xr3:uid="{24ACF80A-37B9-477A-9D9A-CED6A11D50BA}" uniqueName="MiddleEvent" name="MiddleEvent" dataDxfId="13">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@MiddleEvent" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="22" xr3:uid="{EE73924C-C474-41D3-80ED-69AC897B2F3D}" uniqueName="MiddleMove" name="MiddleMove" dataDxfId="15">
+    <tableColumn id="22" xr3:uid="{EE73924C-C474-41D3-80ED-69AC897B2F3D}" uniqueName="MiddleMove" name="MiddleMove" dataDxfId="12">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@MiddleMove" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="23" xr3:uid="{B619F081-DCDB-4179-9E46-8D3125D22B5C}" uniqueName="MiddleTime" name="MiddleTime" dataDxfId="14">
+    <tableColumn id="23" xr3:uid="{B619F081-DCDB-4179-9E46-8D3125D22B5C}" uniqueName="MiddleTime" name="MiddleTime" dataDxfId="11">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@MiddleTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{E6A56E9D-DDEF-402B-9136-1FD91E3858F8}" uniqueName="MiddleFade" name="MiddleFade" dataDxfId="13">
+    <tableColumn id="24" xr3:uid="{E6A56E9D-DDEF-402B-9136-1FD91E3858F8}" uniqueName="MiddleFade" name="MiddleFade" dataDxfId="10">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@MiddleFade" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="25" xr3:uid="{061CBFC4-58F3-4A78-9C89-3FD4156C80E9}" uniqueName="MiddleReset" name="MiddleReset" dataDxfId="12">
+    <tableColumn id="25" xr3:uid="{061CBFC4-58F3-4A78-9C89-3FD4156C80E9}" uniqueName="MiddleReset" name="MiddleReset" dataDxfId="9">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@MiddleReset" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="26" xr3:uid="{C30D2295-15A4-4B8A-A607-26C5DC6631BE}" uniqueName="RightEvent" name="RightEvent" dataDxfId="11">
+    <tableColumn id="26" xr3:uid="{C30D2295-15A4-4B8A-A607-26C5DC6631BE}" uniqueName="RightEvent" name="RightEvent" dataDxfId="8">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@RightEvent" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="27" xr3:uid="{00D1ACBD-311F-4633-8C95-F97C626B6515}" uniqueName="RightMove" name="RightMove" dataDxfId="10">
+    <tableColumn id="27" xr3:uid="{00D1ACBD-311F-4633-8C95-F97C626B6515}" uniqueName="RightMove" name="RightMove" dataDxfId="7">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@RightMove" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="28" xr3:uid="{C268DB1C-5308-428A-AE30-7143DC9344F5}" uniqueName="RightTime" name="RightTime" dataDxfId="9">
+    <tableColumn id="28" xr3:uid="{C268DB1C-5308-428A-AE30-7143DC9344F5}" uniqueName="RightTime" name="RightTime" dataDxfId="6">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@RightTime" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="29" xr3:uid="{9578C52C-261E-460E-BEE1-A3BC1EEBABA4}" uniqueName="RightFade" name="RightFade" dataDxfId="8">
+    <tableColumn id="29" xr3:uid="{9578C52C-261E-460E-BEE1-A3BC1EEBABA4}" uniqueName="RightFade" name="RightFade" dataDxfId="5">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@RightFade" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="30" xr3:uid="{AF3AA540-C9E9-459E-82A5-B71BDAEFD351}" uniqueName="RightReset" name="RightReset" dataDxfId="7">
+    <tableColumn id="30" xr3:uid="{AF3AA540-C9E9-459E-82A5-B71BDAEFD351}" uniqueName="RightReset" name="RightReset" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/CharacterEffect/@RightReset" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="31" xr3:uid="{4271D459-4641-4728-85AA-D715536B63EB}" uniqueName="BGMVolume" name="BGMVolume" dataDxfId="6">
+    <tableColumn id="31" xr3:uid="{4271D459-4641-4728-85AA-D715536B63EB}" uniqueName="BGMVolume" name="BGMVolume" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/SoundCtrl/@BGMVolume" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="32" xr3:uid="{CC437D13-F284-4224-971F-94E8B91ABB58}" uniqueName="EffectVolume" name="EffectVolume" dataDxfId="5">
+    <tableColumn id="32" xr3:uid="{CC437D13-F284-4224-971F-94E8B91ABB58}" uniqueName="EffectVolume" name="EffectVolume" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/SoundCtrl/@EffectVolume" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="33" xr3:uid="{2663AC66-3735-4A7E-AD21-82892B307FA2}" uniqueName="ImageShow" name="ImageShow" dataDxfId="4">
+    <tableColumn id="33" xr3:uid="{2663AC66-3735-4A7E-AD21-82892B307FA2}" uniqueName="ImageShow" name="ImageShow" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/PieceImage/@ImageShow" xmlDataType="boolean"/>
     </tableColumn>
-    <tableColumn id="34" xr3:uid="{0AAA0EB7-1C24-43D2-BEB2-03A4968043A8}" uniqueName="ImageNumber" name="ImageNumber" dataDxfId="3">
+    <tableColumn id="34" xr3:uid="{0AAA0EB7-1C24-43D2-BEB2-03A4968043A8}" uniqueName="ImageNumber" name="ImageNumber" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/Dialogue_1/u_story_1/story/PieceImage/@ImageNumber" xmlDataType="integer"/>
     </tableColumn>
   </tableColumns>
@@ -1626,7 +1623,7 @@
   <dimension ref="A1:AH26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="AC36" sqref="AC36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1670,34 +1667,34 @@
       <c r="B1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="21" t="s">
         <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="7" t="s">
+      <c r="L1" s="6" t="s">
         <v>12</v>
       </c>
       <c r="M1" t="s">
@@ -1709,61 +1706,61 @@
       <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="6" t="s">
+      <c r="Z1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="6" t="s">
+      <c r="AB1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="5" t="s">
+      <c r="AE1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AG1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="7" t="s">
+      <c r="AH1" s="6" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1774,100 +1771,100 @@
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>35</v>
-      </c>
-      <c r="P2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC2" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE2" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF2" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG2" s="31" t="b">
+      <c r="G2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG2" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AH2" s="32">
+      <c r="AH2" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1878,100 +1875,100 @@
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="22" t="s">
         <v>36</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F3" s="9" t="s">
+      <c r="E3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="T3" s="4" t="s">
+      <c r="G3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="U3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="V3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="W3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC3" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE3" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG3" s="31" t="b">
+      <c r="U3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG3" s="15" t="b">
         <v>0</v>
       </c>
-      <c r="AH3" s="32">
+      <c r="AH3" s="16">
         <v>0</v>
       </c>
     </row>
@@ -1982,401 +1979,401 @@
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="23" t="s">
         <v>36</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="M4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="O4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="P4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="S4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="T4" s="11" t="s">
+      <c r="G4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="T4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="U4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="V4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="W4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="X4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AC4" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="AD4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AF4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="AG4" s="33" t="b">
+      <c r="U4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="V4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="W4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="AF4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG4" s="17" t="b">
         <v>0</v>
       </c>
-      <c r="AH4" s="34">
+      <c r="AH4" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:34" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="14" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="14" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="28" t="s">
+      <c r="N5" s="30"/>
+      <c r="O5" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="P5" s="14" t="s">
+      <c r="P5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="14" t="s">
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="38"/>
+      <c r="AC5" s="38"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="14" t="s">
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="AH5" s="15"/>
+      <c r="AH5" s="30"/>
     </row>
     <row r="6" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="29"/>
-      <c r="P6" s="16"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-      <c r="AC6" s="17"/>
-      <c r="AD6" s="18"/>
-      <c r="AE6" s="16"/>
-      <c r="AF6" s="18"/>
-      <c r="AG6" s="16"/>
-      <c r="AH6" s="18"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="31"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="32"/>
+      <c r="AE6" s="31"/>
+      <c r="AF6" s="32"/>
+      <c r="AG6" s="31"/>
+      <c r="AH6" s="32"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="E7" s="16"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="18"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="18"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="18"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="18"/>
-      <c r="AG7" s="16"/>
-      <c r="AH7" s="18"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="39"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="32"/>
+      <c r="AE7" s="31"/>
+      <c r="AF7" s="32"/>
+      <c r="AG7" s="31"/>
+      <c r="AH7" s="32"/>
     </row>
     <row r="8" spans="1:34" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E8" s="19"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="18"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="20"/>
-      <c r="Y8" s="20"/>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="21"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="21"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="21"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="40"/>
+      <c r="R8" s="40"/>
+      <c r="S8" s="40"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="40"/>
+      <c r="V8" s="40"/>
+      <c r="W8" s="40"/>
+      <c r="X8" s="40"/>
+      <c r="Y8" s="40"/>
+      <c r="Z8" s="40"/>
+      <c r="AA8" s="40"/>
+      <c r="AB8" s="40"/>
+      <c r="AC8" s="40"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="33"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="34"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25" t="s">
+      <c r="H9" s="49"/>
+      <c r="I9" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25" t="s">
+      <c r="J9" s="49"/>
+      <c r="K9" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="L9" s="25"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="G10" s="23" t="s">
+      <c r="G10" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="J10" s="23">
+      <c r="J10" s="12">
         <v>1</v>
       </c>
-      <c r="K10" s="23" t="s">
+      <c r="K10" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L10" s="23">
+      <c r="L10" s="12">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="24" t="s">
+      <c r="J11" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="K11" s="23" t="s">
+      <c r="K11" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L11" s="23">
+      <c r="L11" s="12">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="G12" s="23" t="s">
+      <c r="G12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="23" t="s">
+      <c r="I12" s="50"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="23">
+      <c r="L12" s="12">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:34" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="H13" s="42" t="s">
+      <c r="H13" s="26" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="43"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="23" t="s">
+      <c r="I13" s="51"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L13" s="23">
+      <c r="L13" s="12">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="G14" s="45" t="s">
+      <c r="G14" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="47"/>
-      <c r="K14" s="41" t="s">
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="L14" s="23">
+      <c r="L14" s="12">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="G15" s="48"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="41" t="s">
+      <c r="G15" s="44"/>
+      <c r="H15" s="39"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="L15" s="23">
+      <c r="L15" s="12">
         <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="G16" s="48"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="41" t="s">
+      <c r="G16" s="44"/>
+      <c r="H16" s="39"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="L16" s="23">
+      <c r="L16" s="12">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G17" s="50"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="41" t="s">
+      <c r="G17" s="46"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="48"/>
+      <c r="K17" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="L17" s="23"/>
+      <c r="L17" s="12"/>
     </row>
     <row r="24" spans="1:13" ht="27" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="54"/>
-      <c r="J24" s="54"/>
-      <c r="K24" s="54"/>
-      <c r="L24" s="54"/>
-      <c r="M24" s="54"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="28"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -2385,19 +2382,19 @@
       <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="53" t="s">
+      <c r="C25" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="53" t="s">
+      <c r="D25" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="53" t="s">
+      <c r="F25" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="53" t="s">
+      <c r="G25" s="27" t="s">
         <v>3</v>
       </c>
       <c r="H25" s="3" t="s">
@@ -2406,24 +2403,24 @@
       <c r="I25" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J25" s="53" t="s">
+      <c r="J25" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="K25" s="53" t="s">
+      <c r="K25" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="L25" s="53" t="s">
+      <c r="L25" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="M25" s="53" t="s">
+      <c r="M25" s="27" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="36" t="s">
+      <c r="B26" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C26">
@@ -2462,11 +2459,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A24:M24"/>
-    <mergeCell ref="E5:F8"/>
-    <mergeCell ref="M5:N8"/>
-    <mergeCell ref="O5:O8"/>
-    <mergeCell ref="P5:AD8"/>
     <mergeCell ref="AE5:AF8"/>
     <mergeCell ref="AG5:AH8"/>
     <mergeCell ref="G14:J17"/>
@@ -2476,6 +2468,11 @@
     <mergeCell ref="K9:L9"/>
     <mergeCell ref="I11:I13"/>
     <mergeCell ref="J11:J13"/>
+    <mergeCell ref="A24:M24"/>
+    <mergeCell ref="E5:F8"/>
+    <mergeCell ref="M5:N8"/>
+    <mergeCell ref="O5:O8"/>
+    <mergeCell ref="P5:AD8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
